--- a/Plots_for_Paper_vmat/likelihoodcomparison.xlsx
+++ b/Plots_for_Paper_vmat/likelihoodcomparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>BMAONLY</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>rank3EDwithResidual</t>
+  </si>
+  <si>
+    <t>BMAlite</t>
   </si>
 </sst>
 </file>
@@ -585,6 +588,273 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LogLikelihood of Test Set</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>BMAONLY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rank5withRes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rank2EE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NoDecRank5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NoDecRank2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NoPCNoSFA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NOPC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>K1 Only</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rank20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Rank10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rank6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Rank7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rank12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rank2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Rank5NoQ</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Rank5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Rank4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Rank3maxiter</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>rank3 loop </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rank3 with single denoise</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>rank3ED</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>rank3withbiggrid</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>rank3EDwithResidual</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>BMAlite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-1.298672E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.283993E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.277777E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.269504E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.269442E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.269277E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.268966E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.268622E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.268552E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.268525E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.26852E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.268519E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.268516E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.268322E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.268191E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.268102E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.26806599731736E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2679984E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2679984840939E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.26804969E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.2679975E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.274778E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.26477282E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.28320554E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="-2086238376"/>
+        <c:axId val="-2086046904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2086238376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086046904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2086046904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086238376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -718,7 +988,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -959,6 +1229,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1356,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1559,6 +1859,17 @@
       <c r="A24" t="s">
         <v>33</v>
       </c>
+      <c r="B24">
+        <v>-1264772.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>-1283205.54</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
@@ -1581,6 +1892,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1594,7 +1906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
